--- a/data/long_dif/P37-Urba-long_dif.xlsx
+++ b/data/long_dif/P37-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,65%</t>
+          <t>31,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>27,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>28,04%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32,18%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>27,2%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26,45%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,06; 38,07</t>
+          <t>27,17; 39,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,62; 31,48</t>
+          <t>22,61; 31,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,33; 35,49</t>
+          <t>19,62; 30,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,0; 31,6</t>
+          <t>27,66; 35,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,29; 35,52</t>
+          <t>23,99; 31,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,57; 30,3</t>
+          <t>23,43; 33,29</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28,71; 36,31</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24,52; 30,11</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22,91; 30,13</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>44,42%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>48,83%</t>
+          <t>48,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,62%</t>
+          <t>49,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,25%</t>
+          <t>43,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,01%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,48%</t>
+          <t>43,44%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>43,55%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>47,43%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>46,3%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,87; 49,9</t>
+          <t>38,27; 49,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,99; 54,22</t>
+          <t>44,14; 54,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,24; 47,85</t>
+          <t>43,1; 58,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41,97; 49,9</t>
+          <t>39,32; 47,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,39; 47,15</t>
+          <t>42,07; 49,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,38; 50,89</t>
+          <t>38,34; 48,27</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>39,86; 46,82</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>44,23; 50,46</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>42,4; 51,33</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,1%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>28,51%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24,28%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>25,36%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27,26%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,0; 29,03</t>
+          <t>19,43; 29,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,72; 28,77</t>
+          <t>20,15; 28,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,24; 29,09</t>
+          <t>20,38; 30,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,81; 29,74</t>
+          <t>21,27; 28,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,33; 27,65</t>
+          <t>22,62; 30,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,77; 28,12</t>
+          <t>23,96; 34,16</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>21,19; 27,44</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22,73; 28,12</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23,58; 31,03</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,73; 37,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,74; 34,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,75; 35,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,79; 34,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,33; 34,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,07; 32,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>50,62%</t>
+          <t>29,25%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,4%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>46,61%</t>
+          <t>32,12%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29,27%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29,81%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29,89%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,63; 49,1</t>
+          <t>23,07; 35,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,0; 56,36</t>
+          <t>24,26; 34,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,71; 49,58</t>
+          <t>21,58; 35,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,12; 47,23</t>
+          <t>25,47; 35,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,26; 48,18</t>
+          <t>26,48; 34,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,87; 50,25</t>
+          <t>26,42; 36,75</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25,88; 33,61</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>26,86; 33,41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>25,8; 34,48</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>49,78%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>45,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>44,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>41,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>45,2%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>43,97%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>45,88%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>45,24%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,96; 33,75</t>
+          <t>36,89; 49,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,83; 25,41</t>
+          <t>44,28; 55,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,96; 30,97</t>
+          <t>38,17; 52,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,36; 31,86</t>
+          <t>39,04; 49,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,56; 30,89</t>
+          <t>37,33; 46,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,45; 27,05</t>
+          <t>39,4; 51,12</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>39,68; 47,88</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>41,83; 49,38</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>40,78; 49,94</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,89%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>22,68%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>24,31%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>24,87%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,9; 45,53</t>
+          <t>22,65; 34,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,33; 24,2</t>
+          <t>17,05; 25,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,04; 47,51</t>
+          <t>21,02; 32,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,03; 41,82</t>
+          <t>21,21; 31,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,03; 43,24</t>
+          <t>23,68; 32,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,56; 29,95</t>
+          <t>18,13; 27,31</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>23,04; 30,79</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>21,06; 27,26</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>20,96; 28,91</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>41,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>42,5%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>24,49; 47,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>34,06; 54,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,44; 45,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>31,63; 50,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,02; 43,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,56; 49,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>37,29%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>35,2%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>32,91%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>29,26%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>33,4%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>24,44%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>33,35%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>20,54; 44,47</t>
+          <t>21,68; 43,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>29,88; 51,72</t>
+          <t>10,21; 24,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>20,63; 39,6</t>
+          <t>21,01; 58,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>18,41; 35,11</t>
+          <t>26,63; 46,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,51; 38,2</t>
+          <t>24,44; 40,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>26,77; 40,8</t>
+          <t>19,49; 38,88</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>26,16; 40,93</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>18,72; 30,21</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>24,17; 46,85</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>31,3%</t>
+          <t>36,61%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>43,07%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>31,53%</t>
+          <t>50,3%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>35,95%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>41,03%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>38,05%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>36,29%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>42,07%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>44,28%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>27,51; 35,97</t>
+          <t>25,71; 49,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>23,24; 29,61</t>
+          <t>32,89; 53,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>28,57; 34,91</t>
+          <t>31,78; 66,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>26,63; 31,7</t>
+          <t>25,97; 45,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>28,77; 33,98</t>
+          <t>31,36; 50,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,75; 29,73</t>
+          <t>29,0; 49,92</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>28,54; 43,79</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>35,35; 49,17</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>35,45; 54,05</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>42,7%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>40,54%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>44,26%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>42,8%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>46,56%</t>
+          <t>32,7%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>30,31%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>33,49%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>22,37%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>38,92; 47,17</t>
+          <t>20,66; 49,11</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>45,53; 52,6</t>
+          <t>30,84; 52,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>39,71; 46,02</t>
+          <t>6,18; 23,52</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>41,33; 47,25</t>
+          <t>20,88; 39,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>40,36; 45,54</t>
+          <t>19,14; 35,36</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>44,21; 48,7</t>
+          <t>22,57; 44,6</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>23,81; 40,13</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>26,21; 40,54</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>15,83; 30,87</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,495 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>22,45; 29,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>21,95; 28,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>22,51; 28,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24,22; 29,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>23,42; 28,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,89; 27,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>30,9%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>26,5%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>27,43%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>31,45%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>29,26%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>29,76%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>31,18%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>27,9%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>28,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>27,29; 35,82</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>23,63; 30,0</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>23,21; 32,7</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>28,5; 34,85</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>26,7; 31,81</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>26,49; 32,87</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>28,95; 33,98</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>25,73; 29,73</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>26,16; 31,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>42,73%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>48,5%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>47,85%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>43,01%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>43,98%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>43,51%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>42,87%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>46,2%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>45,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>38,25; 46,45</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>45,31; 52,17</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>42,92; 53,26</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>39,51; 46,14</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>40,76; 46,74</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>39,94; 46,97</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>40,33; 45,21</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>44,06; 48,65</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>42,77; 48,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>26,37%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>25,01%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>25,54%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>26,72%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>25,95%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>25,9%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>25,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>22,73; 30,7</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>21,98; 28,2</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>20,97; 28,46</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>22,76; 28,78</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>24,44; 29,71</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>23,85; 30,08</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>23,8; 28,55</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>23,88; 27,93</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>23,13; 28,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
